--- a/contacts/results_plots_sessions/session_params.xlsx
+++ b/contacts/results_plots_sessions/session_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="582"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>tau p</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>cmd3 done</t>
+  </si>
+  <si>
+    <t>ntd</t>
   </si>
 </sst>
 </file>
@@ -759,8 +762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="A7:F8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -969,7 +973,9 @@
       <c r="C11" s="11">
         <v>1000</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="10" t="s">
         <v>15</v>
       </c>
@@ -987,7 +993,9 @@
       <c r="C12" s="11">
         <v>1000</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="E12" s="10" t="s">
         <v>16</v>
       </c>
@@ -1005,7 +1013,9 @@
       <c r="C13" s="11">
         <v>100000</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +1033,9 @@
       <c r="C14" s="11">
         <v>1000</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1041,7 +1053,9 @@
       <c r="C15" s="11">
         <v>1000</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" s="10" t="s">
         <v>19</v>
       </c>
@@ -1072,6 +1086,9 @@
       </c>
       <c r="C17" s="8">
         <v>1000</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>

--- a/contacts/results_plots_sessions/session_params.xlsx
+++ b/contacts/results_plots_sessions/session_params.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>tau p</t>
   </si>
@@ -192,6 +192,42 @@
   </si>
   <si>
     <t>ntd</t>
+  </si>
+  <si>
+    <t>simulation with proba tau=0.1           893.134583 seconds (32.60 G allocations: 1.070 TiB, 12.86% gc time)
+simulation with proba tau=0.1           594.944788 seconds (21.15 G allocations: 711.929 GiB, 13.26% gc time)
+simulation with proba tau=0.1           743.240608 seconds (26.29 G allocations: 884.038 GiB, 13.03% gc time)
+simulation with proba tau=0.1           590.393394 seconds (21.18 G allocations: 712.991 GiB, 12.85% gc time)
+simulation with proba tau=0.1           691.667239 seconds (25.76 G allocations: 866.248 GiB, 13.23% gc time)
+simulation with proba tau=0.1           561.138988 seconds (19.80 G allocations: 666.283 GiB, 13.01% gc time)
+simulation with proba tau=0.1           856.682734 seconds (30.21 G allocations: 1015.638 GiB, 12.88% gc time)
+simulation with proba tau=0.1           757.956577 seconds (27.10 G allocations: 911.228 GiB, 12.98% gc time)
+simulation with proba tau=0.1           995.972269 seconds (35.29 G allocations: 1.158 TiB, 12.77% gc time)
+simulation with proba tau=0.1           1235.597833 seconds (45.61 G allocations: 1.497 TiB, 12.54% gc time)</t>
+  </si>
+  <si>
+    <t>simulation with proba tau=0.1           375.460161 seconds (13.70 G allocations: 461.308 GiB, 13.46% gc time)
+simulation with proba tau=0.1           730.908546 seconds (26.24 G allocations: 881.816 GiB, 12.91% gc time)
+simulation with proba tau=0.1           740.654664 seconds (26.10 G allocations: 877.590 GiB, 12.81% gc time)
+simulation with proba tau=0.1           345.559198 seconds (12.65 G allocations: 425.912 GiB, 13.64% gc time)
+simulation with proba tau=0.1           818.228857 seconds (29.32 G allocations: 985.592 GiB, 12.67% gc time)
+simulation with proba tau=0.1           405.442935 seconds (14.18 G allocations: 477.176 GiB, 12.95% gc time)
+simulation with proba tau=0.1           864.569994 seconds (30.06 G allocations: 1010.258 GiB, 12.66% gc time)
+simulation with proba tau=0.1           903.404747 seconds (31.20 G allocations: 1.024 TiB, 12.51% gc time)
+simulation with proba tau=0.1           1200.483694 seconds (41.06 G allocations: 1.347 TiB, 12.18% gc time)
+simulation with proba tau=0.1           733.707059 seconds (25.95 G allocations: 872.493 GiB, 12.77% gc time)</t>
+  </si>
+  <si>
+    <t>simulation with proba tau=0.1           824.971843 seconds (30.06 G allocations: 1010.090 GiB, 13.15% gc time)
+simulation with proba tau=0.1           498.327430 seconds (18.02 G allocations: 605.979 GiB, 13.31% gc time)
+simulation with proba tau=0.1           405.938090 seconds (14.65 G allocations: 493.157 GiB, 13.58% gc time)
+simulation with proba tau=0.1           590.508343 seconds (20.98 G allocations: 705.747 GiB, 12.81% gc time)
+simulation with proba tau=0.1           799.691181 seconds (28.63 G allocations: 962.202 GiB, 12.71% gc time)
+simulation with proba tau=0.1           346.773970 seconds (11.79 G allocations: 397.110 GiB, 14.76% gc time)
+simulation with proba tau=0.1           800.249669 seconds (27.40 G allocations: 920.847 GiB, 13.24% gc time)
+simulation with proba tau=0.1           910.286169 seconds (31.68 G allocations: 1.040 TiB, 12.64% gc time)
+simulation with proba tau=0.1           969.596101 seconds (33.27 G allocations: 1.092 TiB, 12.33% gc time)
+simulation with proba tau=0.1           1009.245251 seconds (35.74 G allocations: 1.173 TiB, 12.62% gc time)</t>
   </si>
 </sst>
 </file>
@@ -460,8 +496,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>538163</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1036864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -486,6 +522,138 @@
         <a:xfrm>
           <a:off x="13792200" y="4181475"/>
           <a:ext cx="3586163" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3769179</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1179286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="5510893"/>
+          <a:ext cx="3769179" cy="2512786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3809999</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>224517</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1265464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13811249" y="6844393"/>
+          <a:ext cx="3898447" cy="2598964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3741964</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001251" y="8177893"/>
+          <a:ext cx="3741963" cy="2494642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,8 +931,8 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -893,64 +1061,73 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>0.1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>1000</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>0.1</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="5">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>1000</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="F7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>0.1</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>100000</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>35</v>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1077,66 +1254,81 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>0.8</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="10">
         <v>3</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="11">
         <v>1000</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="F17" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>0.8</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="10">
         <v>7</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="11">
         <v>1000</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="F18" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>0.8</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="10">
         <v>7</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="11">
         <v>100000</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>33</v>
       </c>

--- a/contacts/results_plots_sessions/session_params.xlsx
+++ b/contacts/results_plots_sessions/session_params.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>tau p</t>
   </si>
@@ -104,34 +104,10 @@
     <t>session18</t>
   </si>
   <si>
-    <t>putty1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> /opt/ohpc/pub/apps/julia/1.3.1/bin/julia /home/rabiaaziza/julia_projects/KenyaCoV-MakingContacts_v3_2020-03-04/contacts/run_session</t>
   </si>
   <si>
-    <t>putty2</t>
-  </si>
-  <si>
-    <t>putty3</t>
-  </si>
-  <si>
-    <t>putty4</t>
-  </si>
-  <si>
-    <t>putty5</t>
-  </si>
-  <si>
-    <t>cmd1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> cd("C:\\Users\\rabia\\Documents\\GitHub\\KenyaCoV")</t>
-  </si>
-  <si>
-    <t>cmd2</t>
-  </si>
-  <si>
-    <t>cmd3</t>
   </si>
   <si>
     <t>simulation with proba tau=0.0             1.495146 seconds (26.32 M allocations: 594.218 MiB, 3.52% gc time)
@@ -188,9 +164,6 @@
     <t>cmd2 done</t>
   </si>
   <si>
-    <t>cmd3 done</t>
-  </si>
-  <si>
     <t>ntd</t>
   </si>
   <si>
@@ -228,6 +201,77 @@
 simulation with proba tau=0.1           910.286169 seconds (31.68 G allocations: 1.040 TiB, 12.64% gc time)
 simulation with proba tau=0.1           969.596101 seconds (33.27 G allocations: 1.092 TiB, 12.33% gc time)
 simulation with proba tau=0.1           1009.245251 seconds (35.74 G allocations: 1.173 TiB, 12.62% gc time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulation with proba tau=0.3            10600.981872 seconds (256.42 G allocations: 8.405 TiB, 13.54% gc time) </t>
+  </si>
+  <si>
+    <t>simulation with proba tau=0.3           8742.072804 seconds (203.11 G allocations: 6.657 TiB, 13.60% gc time)</t>
+  </si>
+  <si>
+    <t>simulation with proba tau=0.3           11322.059311 seconds (261.41 G allocations: 8.566 TiB, 13.56% gc time)</t>
+  </si>
+  <si>
+    <t>simulation with proba tau=0.5           22995.388461 seconds (521.51 G allocations: 17.086 TiB, 13.47% gc time)</t>
+  </si>
+  <si>
+    <t>simulation with proba tau=0.5           5436.393594 seconds (132.91 G allocations: 4.358 TiB, 14.29% gc time)</t>
+  </si>
+  <si>
+    <t>simulation with proba tau=0.8           5309.164294 seconds (186.63 G allocations: 6.118 TiB, 12.29% gc time)
+simulation with proba tau=0.8           40262.516724 seconds (1.47 T allocations: 48.065 TiB, 12.60% gc time)</t>
+  </si>
+  <si>
+    <t>simulation with proba tau=0.8           20787.508871 seconds (748.62 G allocations: 24.522 TiB, 12.45% gc time)
+simulation with proba tau=0.8           25201.068121 seconds (884.85 G allocations: 28.985 TiB, 12.10% gc time)</t>
+  </si>
+  <si>
+    <t>putty1 display error</t>
+  </si>
+  <si>
+    <t>putty2 display error</t>
+  </si>
+  <si>
+    <t>putty3 display error</t>
+  </si>
+  <si>
+    <t>putty4 display error</t>
+  </si>
+  <si>
+    <t>putty5 display error</t>
+  </si>
+  <si>
+    <t>cmd2 restarted</t>
+  </si>
+  <si>
+    <t>cmd3 restarted</t>
+  </si>
+  <si>
+    <t>cmd1 done
+in email</t>
+  </si>
+  <si>
+    <t>cmd3 done
+in email</t>
+  </si>
+  <si>
+    <t>P.τ detection rate</t>
+  </si>
+  <si>
+    <t>P.τ=1/3.</t>
+  </si>
+  <si>
+    <t>P.τ=1/15.</t>
+  </si>
+  <si>
+    <t>session20</t>
+  </si>
+  <si>
+    <t>session21</t>
+  </si>
+  <si>
+    <t>cmd1 restarted 
+interrupted voluntarily</t>
   </si>
 </sst>
 </file>
@@ -269,7 +313,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +332,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -301,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,6 +391,21 @@
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,13 +427,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1228724</xdr:rowOff>
@@ -400,14 +471,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1085850</xdr:rowOff>
     </xdr:to>
@@ -444,13 +515,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3676651</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1117601</xdr:rowOff>
@@ -488,14 +559,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>538163</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1036864</xdr:rowOff>
     </xdr:to>
@@ -532,13 +603,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3769179</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1179286</xdr:rowOff>
@@ -576,14 +647,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3809999</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>224517</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>224518</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1265464</xdr:rowOff>
     </xdr:to>
@@ -620,16 +691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3741964</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99785</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>816962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -654,6 +725,226 @@
         <a:xfrm>
           <a:off x="10001251" y="8177893"/>
           <a:ext cx="3741963" cy="2494642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3776383</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>151281</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1030941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13906501" y="9827558"/>
+          <a:ext cx="3815604" cy="2543736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3798794</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1255058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10130118" y="11340353"/>
+          <a:ext cx="3798794" cy="2532529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13940118" y="12617824"/>
+          <a:ext cx="3787588" cy="2525059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10130118" y="13884088"/>
+          <a:ext cx="3843617" cy="2562411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1049617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13940118" y="15139147"/>
+          <a:ext cx="3776382" cy="2517588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -928,27 +1219,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="7" customWidth="1"/>
-    <col min="7" max="7" width="77.85546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="57.140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="16.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="7" customWidth="1"/>
+    <col min="8" max="8" width="77.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="57.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -959,17 +1251,20 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -980,19 +1275,22 @@
         <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="G2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>0.05</v>
       </c>
@@ -1002,20 +1300,23 @@
       <c r="C3" s="12">
         <v>1000</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>0.05</v>
       </c>
@@ -1025,20 +1326,23 @@
       <c r="C4" s="12">
         <v>1000</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>0.05</v>
       </c>
@@ -1048,20 +1352,23 @@
       <c r="C5" s="12">
         <v>100000</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="G5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>0.1</v>
       </c>
@@ -1071,20 +1378,23 @@
       <c r="C6" s="12">
         <v>1000</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>0.1</v>
       </c>
@@ -1094,20 +1404,23 @@
       <c r="C7" s="12">
         <v>1000</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="G7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>0.1</v>
       </c>
@@ -1117,130 +1430,169 @@
       <c r="C8" s="12">
         <v>100000</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="B11" s="13">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="B12" s="13">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="B13" s="13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14">
+        <v>100000</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="13">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="13">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="B11" s="10">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="B12" s="10">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="B13" s="10">
-        <v>7</v>
-      </c>
-      <c r="C13" s="11">
-        <v>100000</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="B14" s="10">
-        <v>3</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="B15" s="10">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>0.5</v>
       </c>
@@ -1250,31 +1602,40 @@
       <c r="C16" s="8">
         <v>100000</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+    <row r="17" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
         <v>0.8</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="13">
         <v>3</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="14">
         <v>1000</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>0.8</v>
       </c>
@@ -1284,17 +1645,23 @@
       <c r="C18" s="11">
         <v>1000</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>0.8</v>
       </c>
@@ -1304,33 +1671,111 @@
       <c r="C19" s="11">
         <v>100000</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="B23" s="7">
+        <v>7</v>
+      </c>
+      <c r="C23" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B24" s="7">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
